--- a/documents/AD9715特性分析.xlsx
+++ b/documents/AD9715特性分析.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programs\Verilog\FPGA_Group\test_br0101\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programs\test_br0101\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="58">
   <si>
     <t>AD9715直流输出特性分析</t>
   </si>
@@ -146,15 +147,6 @@
     <t>信号频率</t>
   </si>
   <si>
-    <t>期望幅度</t>
-  </si>
-  <si>
-    <t>实测幅度</t>
-  </si>
-  <si>
-    <t>最大不失真输入信号幅度（待测）</t>
-  </si>
-  <si>
     <t>ADA4899频响特性</t>
   </si>
   <si>
@@ -163,15 +155,78 @@
   <si>
     <t>频率倍数</t>
   </si>
+  <si>
+    <t>3ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满幅度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望峰峰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P实测峰峰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N实测峰峰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（实际为7.5MHz左右）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（频率失调，实际为15MHz左右）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(波形恢复低频情况)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel1</t>
+  </si>
+  <si>
+    <t>DAC1 IP</t>
+  </si>
+  <si>
+    <t>channel2</t>
+  </si>
+  <si>
+    <t>DAC1 IN</t>
+  </si>
+  <si>
+    <t>channel3</t>
+  </si>
+  <si>
+    <t>DAC2 QP</t>
+  </si>
+  <si>
+    <t>channel4</t>
+  </si>
+  <si>
+    <t>DAC2 QN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -198,10 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -217,6 +273,3528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AD9715</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>直接通过电阻输出实测电压和期望电压的关系</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实测电压/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1189062500000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4891-4ACA-A876-01AA5F78B46E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135545904"/>
+        <c:axId val="326290016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135545904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>期望电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326290016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="326290016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>实测电压（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135545904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AD9715</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>通过运放输出实测电压和理想电压的关系</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>实测电压/V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.575</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4875000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5964843750000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCAC-45CC-8260-7B1FE117F579}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230032368"/>
+        <c:axId val="363401264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="230032368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>理想电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363401264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363401264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>实测电压</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/V</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230032368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>AD9715</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>直接通过电阻输出频响特性</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7290</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27812</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C364-4B9C-AC74-40F15E58824B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="361930240"/>
+        <c:axId val="363396512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="361930240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363396512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363396512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361930240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A05B5B-BD1B-48C4-9994-0DD43B61E513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69613244-4954-4F94-8FD1-91840BC617E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDC090C-3CFA-436F-A7F1-2E62F578ED3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -262,7 +3840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -314,7 +3892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -516,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:C34"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,184 +4127,425 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <f>0.002*560/32*(ROW()-3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3.2499999999999999E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B34" si="0">0.002*560/32*(ROW()-3)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.78E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.0699999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.106</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.14099999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.17399999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.20699999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.24199999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.27700000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.31500000000000006</v>
+      </c>
+      <c r="C12">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.34399999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.38700000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.42099999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.45500000000000007</v>
+      </c>
+      <c r="C16">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="C17">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C19">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.59500000000000008</v>
+      </c>
+      <c r="C20">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="C21">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C23">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="C25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C26">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="C27">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="C28">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="C29">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="C30">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="C31">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="C32">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="C33">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.0850000000000002</v>
+      </c>
+      <c r="C34">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <f>0.002*560/1024*1023</f>
+        <v>1.1189062500000002</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -737,304 +4556,557 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <f>3.6/32*(ROW()-3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="D3" s="3" t="e">
+        <f>(C3-B3)/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f>3.6/32</f>
+        <f t="shared" ref="B4:B34" si="0">3.6/32*(ROW()-3)</f>
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D35" si="1">(C4-B4)/B4</f>
+        <v>-0.89244444444444448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <f>7.2/32</f>
+        <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.36444444444444452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.19111111111111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B34" si="0">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.11111111111111108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B34" si="1">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="C8">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.1333333333333288E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.4074074074074104E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B34" si="2">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5873015873015817E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B34" si="3">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="C11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>1.0125</v>
+      </c>
+      <c r="C12">
+        <v>0.999</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3333333333333291E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B34" si="4">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="C13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3333333333333246E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B34" si="5">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>1.2375</v>
+      </c>
+      <c r="C14">
+        <v>1.21</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2222222222222286E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="C15">
+        <v>1.31</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.9629629629629655E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:B34" si="6">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>1.4625000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.42</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.9059829059829196E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B34" si="7">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>1.575</v>
+      </c>
+      <c r="C17">
+        <v>1.52</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.492063492063488E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="C18">
+        <v>1.61</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.592592592592587E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:B34" si="8">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="C19">
+        <v>1.71</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:B34" si="9">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>1.9125000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.82</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.8366013071895433E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.92</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.1851851851851843E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B34" si="10">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.1375000000000002</v>
+      </c>
+      <c r="C22">
+        <v>2.02</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.4970760233918198E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B34" si="11">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="C23">
+        <v>2.11</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.2222222222222276E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.3625000000000003</v>
+      </c>
+      <c r="C24">
+        <v>2.19</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.3015873015873145E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:B34" si="12">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="C25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.8787878787878907E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B34" si="13">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.5874999999999999</v>
+      </c>
+      <c r="C26">
+        <v>2.38</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.0193236714975857E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="C27">
+        <v>2.46</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.8888888888888962E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B34" si="14">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.8125</v>
+      </c>
+      <c r="C28">
+        <v>2.54</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.6888888888888872E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B34" si="15">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>2.9250000000000003</v>
+      </c>
+      <c r="C29">
+        <v>2.61</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.10769230769230781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="C30">
+        <v>2.67</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.12098765432098771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B34" si="16">3.6/32</f>
-        <v>0.1125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+      <c r="C31">
+        <v>2.71</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.13968253968253966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B34" si="17">7.2/32</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>3.2625000000000002</v>
+      </c>
+      <c r="C32">
+        <v>2.73</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.16321839080459774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+      <c r="C33">
+        <v>2.74</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.18814814814814809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34" si="18">3.6/32</f>
-        <v>0.1125</v>
+        <f t="shared" si="0"/>
+        <v>3.4875000000000003</v>
+      </c>
+      <c r="C34">
+        <v>2.75</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.21146953405017926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <f>3.6/1024*1023</f>
+        <v>3.5964843750000002</v>
+      </c>
+      <c r="C35">
+        <v>2.76</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.23258390355164557</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" activeCellId="1" sqref="C3:C21 F3:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1042,21 +5114,24 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>41</v>
       </c>
       <c r="B3" s="2">
         <f>1525*C3</f>
@@ -1069,10 +5144,22 @@
         <f>DEC2HEX(C3-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="G3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B15" si="0">1525*C4</f>
+        <f t="shared" ref="B4:B21" si="0">1525*C4</f>
         <v>4575</v>
       </c>
       <c r="C4">
@@ -1080,11 +5167,23 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D15" si="1">DEC2HEX(C4-1)</f>
+        <f t="shared" ref="D4:D21" si="1">DEC2HEX(C4-1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="G4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>13725</v>
@@ -1097,8 +5196,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>41175</v>
@@ -1111,8 +5222,20 @@
         <f t="shared" si="1"/>
         <v>1A</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.2</v>
+      </c>
+      <c r="G6">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>123525</v>
@@ -1125,8 +5248,20 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>370575</v>
@@ -1139,8 +5274,20 @@
         <f t="shared" si="1"/>
         <v>F2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.19</v>
+      </c>
+      <c r="G8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>741150</v>
@@ -1153,8 +5300,20 @@
         <f t="shared" si="1"/>
         <v>1E5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.19</v>
+      </c>
+      <c r="G9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1482300</v>
@@ -1167,8 +5326,20 @@
         <f t="shared" si="1"/>
         <v>3CB</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.19</v>
+      </c>
+      <c r="G10">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>2964600</v>
@@ -1181,8 +5352,20 @@
         <f t="shared" si="1"/>
         <v>797</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>5929200</v>
@@ -1195,70 +5378,280 @@
         <f t="shared" si="1"/>
         <v>F2F</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>11858400</v>
+        <v>8893800</v>
       </c>
       <c r="C13">
-        <f>C12 *2</f>
-        <v>7776</v>
+        <f>C12 *1.5</f>
+        <v>5832</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>1E5F</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>16C7</v>
+      </c>
+      <c r="E13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G13">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>23716800</v>
+        <v>11117250</v>
       </c>
       <c r="C14">
-        <f>C13 *2</f>
-        <v>15552</v>
+        <f>C13 *1.25</f>
+        <v>7290</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>3CBF</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1C79</v>
+      </c>
+      <c r="E14">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.751</v>
+      </c>
+      <c r="G14">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>47433600</v>
+        <v>13895800</v>
       </c>
       <c r="C15">
-        <f>C14*2</f>
-        <v>31104</v>
+        <v>9112</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>797F</v>
-      </c>
+        <v>2397</v>
+      </c>
+      <c r="E15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>17369750</v>
+      </c>
+      <c r="C16">
+        <f>C15*1.25</f>
+        <v>11390</v>
+      </c>
+      <c r="D16" t="str">
+        <f>DEC2HEX(C16-1)</f>
+        <v>2C7D</v>
+      </c>
+      <c r="E16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.62</v>
+      </c>
+      <c r="G16">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>21712950</v>
+      </c>
+      <c r="C17">
+        <v>14238</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>379D</v>
+      </c>
+      <c r="E17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>27145000</v>
+      </c>
+      <c r="C18">
+        <v>17800</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>4587</v>
+      </c>
+      <c r="E18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>33931250</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19" si="2">C18*1.25</f>
+        <v>22250</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>56E9</v>
+      </c>
+      <c r="E19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>42413300</v>
+      </c>
+      <c r="C20">
+        <v>27812</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>6CA3</v>
+      </c>
+      <c r="E20">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.89</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>49969675</v>
+      </c>
+      <c r="C21">
+        <v>32767</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>7FFE</v>
+      </c>
+      <c r="E21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>1.2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1266,21 +5659,24 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>41</v>
       </c>
       <c r="B3" s="2">
         <f>1525*C3</f>
@@ -1293,10 +5689,22 @@
         <f>DEC2HEX(C3-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3">
+        <v>3.6</v>
+      </c>
+      <c r="F3">
+        <v>3.09</v>
+      </c>
+      <c r="G3">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B15" si="0">1525*C4</f>
+        <f t="shared" ref="B4:B21" si="0">1525*C4</f>
         <v>4575</v>
       </c>
       <c r="C4">
@@ -1304,11 +5712,23 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D15" si="1">DEC2HEX(C4-1)</f>
+        <f t="shared" ref="D4:D21" si="1">DEC2HEX(C4-1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <v>3.6</v>
+      </c>
+      <c r="F4">
+        <v>3.08</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>13725</v>
@@ -1321,8 +5741,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+      <c r="F5">
+        <v>3.08</v>
+      </c>
+      <c r="G5">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>41175</v>
@@ -1335,8 +5767,20 @@
         <f t="shared" si="1"/>
         <v>1A</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6">
+        <v>3.6</v>
+      </c>
+      <c r="F6">
+        <v>3.09</v>
+      </c>
+      <c r="G6">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>123525</v>
@@ -1349,8 +5793,20 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7">
+        <v>3.6</v>
+      </c>
+      <c r="F7">
+        <v>3.08</v>
+      </c>
+      <c r="G7">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>370575</v>
@@ -1363,8 +5819,20 @@
         <f t="shared" si="1"/>
         <v>F2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <v>3.6</v>
+      </c>
+      <c r="F8">
+        <v>3.09</v>
+      </c>
+      <c r="G8">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>741150</v>
@@ -1377,8 +5845,20 @@
         <f t="shared" si="1"/>
         <v>1E5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <v>3.6</v>
+      </c>
+      <c r="F9">
+        <v>3.08</v>
+      </c>
+      <c r="G9">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1482300</v>
@@ -1391,8 +5871,20 @@
         <f t="shared" si="1"/>
         <v>3CB</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <v>3.6</v>
+      </c>
+      <c r="F10">
+        <v>3.05</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>2964600</v>
@@ -1405,8 +5897,20 @@
         <f t="shared" si="1"/>
         <v>797</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>3.6</v>
+      </c>
+      <c r="F11">
+        <v>3.02</v>
+      </c>
+      <c r="G11">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>5929200</v>
@@ -1419,50 +5923,296 @@
         <f t="shared" si="1"/>
         <v>F2F</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>3.6</v>
+      </c>
+      <c r="F12">
+        <v>2.98</v>
+      </c>
+      <c r="G12">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>11858400</v>
+        <v>8893800</v>
       </c>
       <c r="C13">
-        <f>C12 *2</f>
-        <v>7776</v>
+        <f>C12 *1.5</f>
+        <v>5832</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v>1E5F</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>16C7</v>
+      </c>
+      <c r="E13">
+        <v>3.6</v>
+      </c>
+      <c r="F13">
+        <v>2.8</v>
+      </c>
+      <c r="G13">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>23716800</v>
+        <v>11117250</v>
       </c>
       <c r="C14">
-        <f>C13 *2</f>
-        <v>15552</v>
+        <f>C13 *1.25</f>
+        <v>7290</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v>3CBF</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1C79</v>
+      </c>
+      <c r="E14">
+        <v>3.6</v>
+      </c>
+      <c r="F14">
+        <v>2.88</v>
+      </c>
+      <c r="G14">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>47433600</v>
+        <v>13895800</v>
       </c>
       <c r="C15">
-        <f>C14*2</f>
-        <v>31104</v>
+        <v>9112</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v>797F</v>
+        <v>2397</v>
+      </c>
+      <c r="E15">
+        <v>3.6</v>
+      </c>
+      <c r="F15">
+        <v>3.04</v>
+      </c>
+      <c r="G15">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>17369750</v>
+      </c>
+      <c r="C16">
+        <f>C15*1.25</f>
+        <v>11390</v>
+      </c>
+      <c r="D16" t="str">
+        <f>DEC2HEX(C16-1)</f>
+        <v>2C7D</v>
+      </c>
+      <c r="E16">
+        <v>3.6</v>
+      </c>
+      <c r="F16">
+        <v>3.04</v>
+      </c>
+      <c r="G16">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>21712950</v>
+      </c>
+      <c r="C17">
+        <v>14238</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>379D</v>
+      </c>
+      <c r="E17">
+        <v>3.6</v>
+      </c>
+      <c r="F17">
+        <v>2.85</v>
+      </c>
+      <c r="G17">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>27145000</v>
+      </c>
+      <c r="C18">
+        <v>17800</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>4587</v>
+      </c>
+      <c r="E18">
+        <v>3.6</v>
+      </c>
+      <c r="F18">
+        <v>2.72</v>
+      </c>
+      <c r="G18">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>33931250</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19" si="2">C18*1.25</f>
+        <v>22250</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>56E9</v>
+      </c>
+      <c r="E19">
+        <v>3.6</v>
+      </c>
+      <c r="F19">
+        <v>3.05</v>
+      </c>
+      <c r="G19">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>42413300</v>
+      </c>
+      <c r="C20">
+        <v>27812</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>6CA3</v>
+      </c>
+      <c r="E20">
+        <v>3.6</v>
+      </c>
+      <c r="F20">
+        <v>2.8</v>
+      </c>
+      <c r="G20">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>49969675</v>
+      </c>
+      <c r="C21">
+        <v>32767</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>7FFE</v>
+      </c>
+      <c r="E21">
+        <v>3.6</v>
+      </c>
+      <c r="F21">
+        <v>3.08</v>
+      </c>
+      <c r="G21">
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>